--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_20-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_20-08.xlsx
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
@@ -2286,17 +2289,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2304,7 +2307,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2312,17 +2315,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2330,7 +2333,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2338,17 +2341,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2364,17 +2367,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2390,13 +2393,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2416,13 +2419,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>28</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2442,17 +2445,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2468,13 +2471,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2486,7 +2489,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2494,17 +2497,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2520,17 +2523,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2546,17 +2549,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2564,7 +2567,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2572,17 +2575,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2598,17 +2601,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2624,17 +2627,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2650,17 +2653,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2676,13 +2679,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2702,17 +2705,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2728,17 +2731,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2754,17 +2757,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2780,17 +2783,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2798,7 +2801,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2806,17 +2809,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>68.310000000000002</v>
+        <v>84</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2832,13 +2835,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>35</v>
+        <v>68.310000000000002</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2858,13 +2861,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2884,17 +2887,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2910,17 +2913,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2936,13 +2939,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2962,17 +2965,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2988,17 +2991,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3014,17 +3017,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3040,17 +3043,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>11</v>
+        <v>-96</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3066,17 +3069,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3092,13 +3095,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3118,13 +3121,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3144,13 +3147,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3170,13 +3173,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>25.739999999999998</v>
+        <v>120</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3188,7 +3191,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3196,17 +3199,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>14.67</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3214,7 +3217,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3222,17 +3225,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>34</v>
+        <v>14.67</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3248,17 +3251,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3266,7 +3269,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3274,17 +3277,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3300,17 +3303,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3326,17 +3329,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3352,17 +3355,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3384,11 +3387,11 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3404,13 +3407,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3430,17 +3433,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3448,7 +3451,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3456,17 +3459,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3474,7 +3477,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3482,17 +3485,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3508,17 +3511,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>50</v>
+        <v>-4</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3540,7 +3543,7 @@
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3560,13 +3563,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3586,13 +3589,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3612,51 +3615,77 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="105" ht="26.25" customHeight="1">
-      <c r="K105" s="10">
-        <v>5975.2600000000002</v>
-      </c>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="11">
+    <row r="105" ht="25.5" customHeight="1">
+      <c r="A105" s="6">
+        <v>102</v>
+      </c>
+      <c t="s" r="B105" s="7">
         <v>137</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c t="s" r="F106" s="12">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c t="s" r="H105" s="8">
+        <v>9</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="9">
+        <v>20</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c t="s" r="N105" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="K106" s="10">
+        <v>5998.2600000000002</v>
+      </c>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="11">
         <v>138</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="13"/>
-      <c t="s" r="I106" s="14">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c t="s" r="F107" s="12">
         <v>139</v>
       </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="13"/>
+      <c t="s" r="I107" s="14">
+        <v>140</v>
+      </c>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="314">
+  <mergeCells count="317">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3967,10 +3996,13 @@
     <mergeCell ref="B104:G104"/>
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I106:N106"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="I107:N107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
